--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r110_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -650,10 +662,10 @@
       <c r="I18">
         <f>((C18-C17)^2+(D18- D17)^2)^.5</f>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="J18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L18" t="n">
@@ -697,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="2">
+      <c r="A20" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C20" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s" s="2">
+      <c r="C20" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -743,28 +755,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C22" t="s" s="2">
+      <c r="C22" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D22" t="s" s="2">
+      <c r="D22" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I22" t="s" s="2">
+      <c r="I22" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2251,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2286,28 +2298,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2344,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2528,10 +2540,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K83" s="2" t="s">
+      <c r="J83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2575,28 +2587,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s" s="2">
+      <c r="C85" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2621,28 +2633,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2759,10 +2771,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2806,28 +2818,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2852,28 +2864,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2990,10 +3002,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3037,28 +3049,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3083,28 +3095,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3192,10 +3204,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3239,28 +3251,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3285,28 +3297,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3423,10 +3435,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3470,28 +3482,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3516,28 +3528,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3914,10 +3926,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3961,28 +3973,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4007,28 +4019,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4174,10 +4186,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4221,28 +4233,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4267,28 +4279,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4376,10 +4388,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4423,28 +4435,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4469,28 +4481,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4578,10 +4590,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4625,28 +4637,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4671,28 +4683,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4850,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4885,28 +4897,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4943,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5069,10 +5081,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="2" t="s">
+      <c r="J171" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5116,28 +5128,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="2">
+      <c r="C173" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5162,28 +5174,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5300,10 +5312,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5347,28 +5359,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5393,28 +5405,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5560,10 +5572,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5607,28 +5619,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5653,28 +5665,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5791,10 +5803,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5838,28 +5850,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5884,28 +5896,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6051,10 +6063,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6098,28 +6110,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6144,28 +6156,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6311,10 +6323,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6358,28 +6370,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6404,28 +6416,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6542,10 +6554,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6589,28 +6601,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6635,28 +6647,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6744,10 +6756,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6791,28 +6803,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6837,28 +6849,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6975,10 +6987,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7022,28 +7034,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7068,28 +7080,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7177,10 +7189,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7224,28 +7236,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7270,28 +7282,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7379,10 +7391,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
